--- a/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,71 +452,71 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>44934.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>210</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45376</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45390</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45404</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45432</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>20</v>
@@ -524,15 +524,15 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45446</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45453</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,41 +540,289 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45460</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45565</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45572</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45593</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45635</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
         <v>20</v>
       </c>
     </row>
@@ -589,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,65 +859,161 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45566</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45627</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45199.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45230.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B21" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -853,7 +854,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1015,6 +1016,817 @@
       </c>
       <c r="B21" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-34.42054019009382</v>
+      </c>
+      <c r="D2" t="n">
+        <v>60.63784897538051</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-34.20108106586881</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.93316836903486</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-27.79347065480449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>68.57863083156219</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-29.02868305338998</v>
+      </c>
+      <c r="D5" t="n">
+        <v>67.15787096834961</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-26.1947197363981</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.14175615923571</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>21</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-26.41816898181564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67.92889152350139</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-27.02246299611982</v>
+      </c>
+      <c r="D8" t="n">
+        <v>68.52525121014499</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-25.45304357094516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.82377219212019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-26.9216321537827</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73.81314782526992</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-23.25683910347569</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71.30597178968971</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-19.17607314932688</v>
+      </c>
+      <c r="D12" t="n">
+        <v>73.28065985723978</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-24.63579889278532</v>
+      </c>
+      <c r="D13" t="n">
+        <v>74.77273443343007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>26</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-20.90167181528979</v>
+      </c>
+      <c r="D14" t="n">
+        <v>72.18491542982349</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>27</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.39775521193259</v>
+      </c>
+      <c r="D15" t="n">
+        <v>73.8106411695363</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-17.86193538001364</v>
+      </c>
+      <c r="D16" t="n">
+        <v>78.43853028313323</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>29</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-18.71507796523728</v>
+      </c>
+      <c r="D17" t="n">
+        <v>79.91598684151835</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-18.49808211726618</v>
+      </c>
+      <c r="D18" t="n">
+        <v>79.39773272712426</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>30</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-20.78156777712043</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75.92078491248292</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>31</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-19.61519559947045</v>
+      </c>
+      <c r="D20" t="n">
+        <v>80.99886296131294</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-14.32885630365605</v>
+      </c>
+      <c r="D21" t="n">
+        <v>80.73624171616461</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-13.58116781013862</v>
+      </c>
+      <c r="D22" t="n">
+        <v>84.24403054809908</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-14.9296593856765</v>
+      </c>
+      <c r="D23" t="n">
+        <v>84.70429518625676</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>35</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-12.16058556851759</v>
+      </c>
+      <c r="D24" t="n">
+        <v>86.63774814158914</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.927705606499197</v>
+      </c>
+      <c r="D25" t="n">
+        <v>86.38352232116038</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>38</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.422573498424448</v>
+      </c>
+      <c r="D26" t="n">
+        <v>86.98871895167629</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45235.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>38</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.360796368355565</v>
+      </c>
+      <c r="D27" t="n">
+        <v>87.0565981696847</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>39</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-12.23477099506716</v>
+      </c>
+      <c r="D28" t="n">
+        <v>87.16095576016718</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>40</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-9.832888099556566</v>
+      </c>
+      <c r="D29" t="n">
+        <v>86.03110278126199</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>41</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-7.399798204074009</v>
+      </c>
+      <c r="D30" t="n">
+        <v>89.61976440403539</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>41</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.157495179352763</v>
+      </c>
+      <c r="D31" t="n">
+        <v>86.93991289635436</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>42</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-3.932206616699959</v>
+      </c>
+      <c r="D32" t="n">
+        <v>92.97819874056019</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>44</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-3.09143027555462</v>
+      </c>
+      <c r="D33" t="n">
+        <v>90.93232336859592</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>44</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.350288082451456</v>
+      </c>
+      <c r="D34" t="n">
+        <v>93.06342700508232</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>45</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.798788158078372</v>
+      </c>
+      <c r="D35" t="n">
+        <v>91.6770411984111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>46</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-3.565927848353067</v>
+      </c>
+      <c r="D36" t="n">
+        <v>97.05842795931635</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>47</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.5214046217052</v>
+      </c>
+      <c r="D37" t="n">
+        <v>94.29279284715409</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>50</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4.603945563236996</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102.1770114146954</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>3.766475300784025</v>
+      </c>
+      <c r="D39" t="n">
+        <v>99.40124568873249</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>52</v>
+      </c>
+      <c r="C40" t="n">
+        <v>4.508290590528943</v>
+      </c>
+      <c r="D40" t="n">
+        <v>99.44782288474715</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>6.548321835870046</v>
+      </c>
+      <c r="D41" t="n">
+        <v>102.8211260625629</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" t="n">
+        <v>10.7056086689372</v>
+      </c>
+      <c r="D42" t="n">
+        <v>107.7787692879117</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>56</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7.169584108710771</v>
+      </c>
+      <c r="D43" t="n">
+        <v>105.6972637236469</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>8.469754751379639</v>
+      </c>
+      <c r="D44" t="n">
+        <v>103.5795260275413</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>65</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15.67108368682052</v>
+      </c>
+      <c r="D45" t="n">
+        <v>112.8485834675167</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>66</v>
+      </c>
+      <c r="C46" t="n">
+        <v>20.20062408227799</v>
+      </c>
+      <c r="D46" t="n">
+        <v>111.5846218148192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>68</v>
+      </c>
+      <c r="C47" t="n">
+        <v>16.8398579395725</v>
+      </c>
+      <c r="D47" t="n">
+        <v>118.3489770417834</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>71</v>
+      </c>
+      <c r="C48" t="n">
+        <v>25.46959490495845</v>
+      </c>
+      <c r="D48" t="n">
+        <v>119.93120154061</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>71</v>
+      </c>
+      <c r="C49" t="n">
+        <v>23.7592121092132</v>
+      </c>
+      <c r="D49" t="n">
+        <v>120.0396597963157</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72</v>
+      </c>
+      <c r="C50" t="n">
+        <v>24.76412840606424</v>
+      </c>
+      <c r="D50" t="n">
+        <v>119.4060966969063</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>73</v>
+      </c>
+      <c r="C51" t="n">
+        <v>28.17293644303616</v>
+      </c>
+      <c r="D51" t="n">
+        <v>122.7143375696434</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>73</v>
+      </c>
+      <c r="C52" t="n">
+        <v>30.45454487063269</v>
+      </c>
+      <c r="D52" t="n">
+        <v>119.856729178247</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>74</v>
+      </c>
+      <c r="C53" t="n">
+        <v>26.27993907317831</v>
+      </c>
+      <c r="D53" t="n">
+        <v>121.0093245887259</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>74</v>
+      </c>
+      <c r="C54" t="n">
+        <v>23.34957262822785</v>
+      </c>
+      <c r="D54" t="n">
+        <v>124.3595774306044</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>75</v>
+      </c>
+      <c r="C55" t="n">
+        <v>27.61932138362594</v>
+      </c>
+      <c r="D55" t="n">
+        <v>122.0189752018011</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>27.81579348453374</v>
+      </c>
+      <c r="D56" t="n">
+        <v>120.0765760384221</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
+++ b/po_analysis_by_asin/B083NK82QJ_po_data.xlsx
@@ -1029,7 +1029,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1048,16 +1048,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1066,12 +1056,6 @@
       <c r="B2" t="n">
         <v>14</v>
       </c>
-      <c r="C2" t="n">
-        <v>-34.42054019009382</v>
-      </c>
-      <c r="D2" t="n">
-        <v>60.63784897538051</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1080,12 +1064,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>-34.20108106586881</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.93316836903486</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1094,12 +1072,6 @@
       <c r="B4" t="n">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
-        <v>-27.79347065480449</v>
-      </c>
-      <c r="D4" t="n">
-        <v>68.57863083156219</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1108,12 +1080,6 @@
       <c r="B5" t="n">
         <v>20</v>
       </c>
-      <c r="C5" t="n">
-        <v>-29.02868305338998</v>
-      </c>
-      <c r="D5" t="n">
-        <v>67.15787096834961</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1122,12 +1088,6 @@
       <c r="B6" t="n">
         <v>20</v>
       </c>
-      <c r="C6" t="n">
-        <v>-26.1947197363981</v>
-      </c>
-      <c r="D6" t="n">
-        <v>68.14175615923571</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1136,12 +1096,6 @@
       <c r="B7" t="n">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>-26.41816898181564</v>
-      </c>
-      <c r="D7" t="n">
-        <v>67.92889152350139</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1150,12 +1104,6 @@
       <c r="B8" t="n">
         <v>22</v>
       </c>
-      <c r="C8" t="n">
-        <v>-27.02246299611982</v>
-      </c>
-      <c r="D8" t="n">
-        <v>68.52525121014499</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1164,12 +1112,6 @@
       <c r="B9" t="n">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
-        <v>-25.45304357094516</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73.82377219212019</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1178,12 +1120,6 @@
       <c r="B10" t="n">
         <v>23</v>
       </c>
-      <c r="C10" t="n">
-        <v>-26.9216321537827</v>
-      </c>
-      <c r="D10" t="n">
-        <v>73.81314782526992</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1192,12 +1128,6 @@
       <c r="B11" t="n">
         <v>24</v>
       </c>
-      <c r="C11" t="n">
-        <v>-23.25683910347569</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71.30597178968971</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1206,12 +1136,6 @@
       <c r="B12" t="n">
         <v>25</v>
       </c>
-      <c r="C12" t="n">
-        <v>-19.17607314932688</v>
-      </c>
-      <c r="D12" t="n">
-        <v>73.28065985723978</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1220,12 +1144,6 @@
       <c r="B13" t="n">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
-        <v>-24.63579889278532</v>
-      </c>
-      <c r="D13" t="n">
-        <v>74.77273443343007</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1234,12 +1152,6 @@
       <c r="B14" t="n">
         <v>26</v>
       </c>
-      <c r="C14" t="n">
-        <v>-20.90167181528979</v>
-      </c>
-      <c r="D14" t="n">
-        <v>72.18491542982349</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1248,12 +1160,6 @@
       <c r="B15" t="n">
         <v>27</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.39775521193259</v>
-      </c>
-      <c r="D15" t="n">
-        <v>73.8106411695363</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1262,12 +1168,6 @@
       <c r="B16" t="n">
         <v>29</v>
       </c>
-      <c r="C16" t="n">
-        <v>-17.86193538001364</v>
-      </c>
-      <c r="D16" t="n">
-        <v>78.43853028313323</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1276,12 +1176,6 @@
       <c r="B17" t="n">
         <v>29</v>
       </c>
-      <c r="C17" t="n">
-        <v>-18.71507796523728</v>
-      </c>
-      <c r="D17" t="n">
-        <v>79.91598684151835</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1290,12 +1184,6 @@
       <c r="B18" t="n">
         <v>30</v>
       </c>
-      <c r="C18" t="n">
-        <v>-18.49808211726618</v>
-      </c>
-      <c r="D18" t="n">
-        <v>79.39773272712426</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1304,12 +1192,6 @@
       <c r="B19" t="n">
         <v>30</v>
       </c>
-      <c r="C19" t="n">
-        <v>-20.78156777712043</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75.92078491248292</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1318,12 +1200,6 @@
       <c r="B20" t="n">
         <v>31</v>
       </c>
-      <c r="C20" t="n">
-        <v>-19.61519559947045</v>
-      </c>
-      <c r="D20" t="n">
-        <v>80.99886296131294</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1332,12 +1208,6 @@
       <c r="B21" t="n">
         <v>32</v>
       </c>
-      <c r="C21" t="n">
-        <v>-14.32885630365605</v>
-      </c>
-      <c r="D21" t="n">
-        <v>80.73624171616461</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1346,12 +1216,6 @@
       <c r="B22" t="n">
         <v>34</v>
       </c>
-      <c r="C22" t="n">
-        <v>-13.58116781013862</v>
-      </c>
-      <c r="D22" t="n">
-        <v>84.24403054809908</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1360,12 +1224,6 @@
       <c r="B23" t="n">
         <v>35</v>
       </c>
-      <c r="C23" t="n">
-        <v>-14.9296593856765</v>
-      </c>
-      <c r="D23" t="n">
-        <v>84.70429518625676</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1374,12 +1232,6 @@
       <c r="B24" t="n">
         <v>35</v>
       </c>
-      <c r="C24" t="n">
-        <v>-12.16058556851759</v>
-      </c>
-      <c r="D24" t="n">
-        <v>86.63774814158914</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1388,12 +1240,6 @@
       <c r="B25" t="n">
         <v>37</v>
       </c>
-      <c r="C25" t="n">
-        <v>-9.927705606499197</v>
-      </c>
-      <c r="D25" t="n">
-        <v>86.38352232116038</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1402,12 +1248,6 @@
       <c r="B26" t="n">
         <v>38</v>
       </c>
-      <c r="C26" t="n">
-        <v>-9.422573498424448</v>
-      </c>
-      <c r="D26" t="n">
-        <v>86.98871895167629</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1416,12 +1256,6 @@
       <c r="B27" t="n">
         <v>38</v>
       </c>
-      <c r="C27" t="n">
-        <v>-9.360796368355565</v>
-      </c>
-      <c r="D27" t="n">
-        <v>87.0565981696847</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1430,12 +1264,6 @@
       <c r="B28" t="n">
         <v>39</v>
       </c>
-      <c r="C28" t="n">
-        <v>-12.23477099506716</v>
-      </c>
-      <c r="D28" t="n">
-        <v>87.16095576016718</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1444,12 +1272,6 @@
       <c r="B29" t="n">
         <v>40</v>
       </c>
-      <c r="C29" t="n">
-        <v>-9.832888099556566</v>
-      </c>
-      <c r="D29" t="n">
-        <v>86.03110278126199</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1458,12 +1280,6 @@
       <c r="B30" t="n">
         <v>41</v>
       </c>
-      <c r="C30" t="n">
-        <v>-7.399798204074009</v>
-      </c>
-      <c r="D30" t="n">
-        <v>89.61976440403539</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1472,12 +1288,6 @@
       <c r="B31" t="n">
         <v>41</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.157495179352763</v>
-      </c>
-      <c r="D31" t="n">
-        <v>86.93991289635436</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1486,12 +1296,6 @@
       <c r="B32" t="n">
         <v>42</v>
       </c>
-      <c r="C32" t="n">
-        <v>-3.932206616699959</v>
-      </c>
-      <c r="D32" t="n">
-        <v>92.97819874056019</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1500,12 +1304,6 @@
       <c r="B33" t="n">
         <v>44</v>
       </c>
-      <c r="C33" t="n">
-        <v>-3.09143027555462</v>
-      </c>
-      <c r="D33" t="n">
-        <v>90.93232336859592</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1514,12 +1312,6 @@
       <c r="B34" t="n">
         <v>44</v>
       </c>
-      <c r="C34" t="n">
-        <v>-1.350288082451456</v>
-      </c>
-      <c r="D34" t="n">
-        <v>93.06342700508232</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1528,12 +1320,6 @@
       <c r="B35" t="n">
         <v>45</v>
       </c>
-      <c r="C35" t="n">
-        <v>-2.798788158078372</v>
-      </c>
-      <c r="D35" t="n">
-        <v>91.6770411984111</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1542,12 +1328,6 @@
       <c r="B36" t="n">
         <v>46</v>
       </c>
-      <c r="C36" t="n">
-        <v>-3.565927848353067</v>
-      </c>
-      <c r="D36" t="n">
-        <v>97.05842795931635</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1556,12 +1336,6 @@
       <c r="B37" t="n">
         <v>47</v>
       </c>
-      <c r="C37" t="n">
-        <v>-1.5214046217052</v>
-      </c>
-      <c r="D37" t="n">
-        <v>94.29279284715409</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1570,12 +1344,6 @@
       <c r="B38" t="n">
         <v>50</v>
       </c>
-      <c r="C38" t="n">
-        <v>4.603945563236996</v>
-      </c>
-      <c r="D38" t="n">
-        <v>102.1770114146954</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1584,12 +1352,6 @@
       <c r="B39" t="n">
         <v>51</v>
       </c>
-      <c r="C39" t="n">
-        <v>3.766475300784025</v>
-      </c>
-      <c r="D39" t="n">
-        <v>99.40124568873249</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1598,12 +1360,6 @@
       <c r="B40" t="n">
         <v>52</v>
       </c>
-      <c r="C40" t="n">
-        <v>4.508290590528943</v>
-      </c>
-      <c r="D40" t="n">
-        <v>99.44782288474715</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1612,12 +1368,6 @@
       <c r="B41" t="n">
         <v>55</v>
       </c>
-      <c r="C41" t="n">
-        <v>6.548321835870046</v>
-      </c>
-      <c r="D41" t="n">
-        <v>102.8211260625629</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1626,12 +1376,6 @@
       <c r="B42" t="n">
         <v>56</v>
       </c>
-      <c r="C42" t="n">
-        <v>10.7056086689372</v>
-      </c>
-      <c r="D42" t="n">
-        <v>107.7787692879117</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1640,12 +1384,6 @@
       <c r="B43" t="n">
         <v>56</v>
       </c>
-      <c r="C43" t="n">
-        <v>7.169584108710771</v>
-      </c>
-      <c r="D43" t="n">
-        <v>105.6972637236469</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1654,12 +1392,6 @@
       <c r="B44" t="n">
         <v>57</v>
       </c>
-      <c r="C44" t="n">
-        <v>8.469754751379639</v>
-      </c>
-      <c r="D44" t="n">
-        <v>103.5795260275413</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1668,12 +1400,6 @@
       <c r="B45" t="n">
         <v>65</v>
       </c>
-      <c r="C45" t="n">
-        <v>15.67108368682052</v>
-      </c>
-      <c r="D45" t="n">
-        <v>112.8485834675167</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1682,12 +1408,6 @@
       <c r="B46" t="n">
         <v>66</v>
       </c>
-      <c r="C46" t="n">
-        <v>20.20062408227799</v>
-      </c>
-      <c r="D46" t="n">
-        <v>111.5846218148192</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1696,12 +1416,6 @@
       <c r="B47" t="n">
         <v>68</v>
       </c>
-      <c r="C47" t="n">
-        <v>16.8398579395725</v>
-      </c>
-      <c r="D47" t="n">
-        <v>118.3489770417834</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1710,12 +1424,6 @@
       <c r="B48" t="n">
         <v>71</v>
       </c>
-      <c r="C48" t="n">
-        <v>25.46959490495845</v>
-      </c>
-      <c r="D48" t="n">
-        <v>119.93120154061</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1724,12 +1432,6 @@
       <c r="B49" t="n">
         <v>71</v>
       </c>
-      <c r="C49" t="n">
-        <v>23.7592121092132</v>
-      </c>
-      <c r="D49" t="n">
-        <v>120.0396597963157</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1738,12 +1440,6 @@
       <c r="B50" t="n">
         <v>72</v>
       </c>
-      <c r="C50" t="n">
-        <v>24.76412840606424</v>
-      </c>
-      <c r="D50" t="n">
-        <v>119.4060966969063</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1752,12 +1448,6 @@
       <c r="B51" t="n">
         <v>73</v>
       </c>
-      <c r="C51" t="n">
-        <v>28.17293644303616</v>
-      </c>
-      <c r="D51" t="n">
-        <v>122.7143375696434</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1766,12 +1456,6 @@
       <c r="B52" t="n">
         <v>73</v>
       </c>
-      <c r="C52" t="n">
-        <v>30.45454487063269</v>
-      </c>
-      <c r="D52" t="n">
-        <v>119.856729178247</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1780,12 +1464,6 @@
       <c r="B53" t="n">
         <v>74</v>
       </c>
-      <c r="C53" t="n">
-        <v>26.27993907317831</v>
-      </c>
-      <c r="D53" t="n">
-        <v>121.0093245887259</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1794,12 +1472,6 @@
       <c r="B54" t="n">
         <v>74</v>
       </c>
-      <c r="C54" t="n">
-        <v>23.34957262822785</v>
-      </c>
-      <c r="D54" t="n">
-        <v>124.3595774306044</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1808,12 +1480,6 @@
       <c r="B55" t="n">
         <v>75</v>
       </c>
-      <c r="C55" t="n">
-        <v>27.61932138362594</v>
-      </c>
-      <c r="D55" t="n">
-        <v>122.0189752018011</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1821,12 +1487,6 @@
       </c>
       <c r="B56" t="n">
         <v>75</v>
-      </c>
-      <c r="C56" t="n">
-        <v>27.81579348453374</v>
-      </c>
-      <c r="D56" t="n">
-        <v>120.0765760384221</v>
       </c>
     </row>
   </sheetData>
